--- a/docs/Data-informacionDemo.xlsx
+++ b/docs/Data-informacionDemo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROYECTOS\compraVenta\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BB5525-2927-422B-8490-75CEC4EC622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936117A4-3A4E-43B8-A5D6-D1732EA9CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
+    <workbookView xWindow="7320" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
+    <sheet name="Moneda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
   <si>
     <t>CAT_ID</t>
   </si>
@@ -78,6 +79,18 @@
   </si>
   <si>
     <t>Desktop</t>
+  </si>
+  <si>
+    <t>MON_ID</t>
+  </si>
+  <si>
+    <t>MON_NOM</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>DOL</t>
   </si>
 </sst>
 </file>
@@ -451,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8257454-2998-4E54-B7D1-A8B854526222}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
@@ -1019,4 +1032,168 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520FF9-0952-4593-8EE8-201956AB60FB}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Data-informacionDemo.xlsx
+++ b/docs/Data-informacionDemo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROYECTOS\compraVenta\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936117A4-3A4E-43B8-A5D6-D1732EA9CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1F2DB-A0C2-4A8D-8D61-4F8381BB34D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2130" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
+    <workbookView xWindow="9645" yWindow="4905" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
     <sheet name="Moneda" sheetId="2" r:id="rId2"/>
+    <sheet name="Unidad" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>CAT_ID</t>
   </si>
@@ -91,6 +92,24 @@
   </si>
   <si>
     <t>DOL</t>
+  </si>
+  <si>
+    <t>UND_ID</t>
+  </si>
+  <si>
+    <t>UND_NOM</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>Docena</t>
+  </si>
+  <si>
+    <t>Kilos</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D520FF9-0952-4593-8EE8-201956AB60FB}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
@@ -1196,4 +1215,300 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7264FC01-2692-4A0A-942E-DC9D952F12DC}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Data-informacionDemo.xlsx
+++ b/docs/Data-informacionDemo.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROYECTOS\compraVenta\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyectos\compraVenta\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1F2DB-A0C2-4A8D-8D61-4F8381BB34D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F34212-51B3-42C4-A483-BAC68DE1C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="4905" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
+    <workbookView xWindow="2100" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
     <sheet name="Moneda" sheetId="2" r:id="rId2"/>
     <sheet name="Unidad" sheetId="3" r:id="rId3"/>
+    <sheet name="Cliente" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
   <si>
     <t>CAT_ID</t>
   </si>
@@ -110,16 +111,93 @@
   </si>
   <si>
     <t>Kilos</t>
+  </si>
+  <si>
+    <t>CLI_ID</t>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+  </si>
+  <si>
+    <t>CLI_NOM</t>
+  </si>
+  <si>
+    <t>CLI_RUC</t>
+  </si>
+  <si>
+    <t>CLI_TELF</t>
+  </si>
+  <si>
+    <t>CLI_DIRECC</t>
+  </si>
+  <si>
+    <t>CLI_CORREO</t>
+  </si>
+  <si>
+    <t>Pepito SA</t>
+  </si>
+  <si>
+    <t>Av buenos aires</t>
+  </si>
+  <si>
+    <t>cliente1@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorgito SAC</t>
+  </si>
+  <si>
+    <t>cliente2@gmail.com</t>
+  </si>
+  <si>
+    <t>cliente3@gmail.com</t>
+  </si>
+  <si>
+    <t>cliente4@gmail.com</t>
+  </si>
+  <si>
+    <t>cliente6@gmail.com</t>
+  </si>
+  <si>
+    <t>cliente7@gmail.com</t>
+  </si>
+  <si>
+    <t>cliente8@gmail.com</t>
+  </si>
+  <si>
+    <t>cliente9@gmail.com</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,13 +220,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1221,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7264FC01-2692-4A0A-942E-DC9D952F12DC}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E25"/>
     </sheetView>
   </sheetViews>
@@ -1511,4 +1592,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392A0C91-AE46-4523-BA51-E0A4C944495A}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2">
+        <v>989998596</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3">
+        <v>988885254</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>123456789</v>
+      </c>
+      <c r="E4">
+        <v>988885254</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>123456789</v>
+      </c>
+      <c r="E5">
+        <v>988885254</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>123456789</v>
+      </c>
+      <c r="E6">
+        <v>988885254</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>123456789</v>
+      </c>
+      <c r="E7">
+        <v>988885254</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>123456789</v>
+      </c>
+      <c r="E8">
+        <v>988885254</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>123456789</v>
+      </c>
+      <c r="E9">
+        <v>988885254</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>123456789</v>
+      </c>
+      <c r="E10">
+        <v>988885254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E7C0BEEF-6992-4B3E-8C7B-A4BE19126D5F}"/>
+    <hyperlink ref="G3:G12" r:id="rId2" display="cliente1@gmail.com" xr:uid="{DE41F59C-D39A-438E-ADDB-DCE6FEE68EE5}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{CC5FD010-4F8D-4B34-983A-BF4D31420D32}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{12CEE8DB-DD91-406C-901D-ABE58A159C16}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{3DEEA224-DB70-4E59-AE00-0200148DA802}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{380C1007-203A-4196-851A-C7D3A1FCEFFA}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{44B5C967-65FC-4C34-852F-424E5F6D4A62}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{4A6C8ED2-1D3B-4079-B9F9-DAB7924FAD66}"/>
+    <hyperlink ref="G9" r:id="rId9" xr:uid="{91270939-A545-43ED-8CEA-37028B12B685}"/>
+    <hyperlink ref="G10" r:id="rId10" xr:uid="{520180A2-C71A-4E3E-8528-6A592C5A74ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Data-informacionDemo.xlsx
+++ b/docs/Data-informacionDemo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proyectos\compraVenta\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F34212-51B3-42C4-A483-BAC68DE1C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62907DF-CE9E-4406-8F06-8F4BC100726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
+    <workbookView xWindow="6555" yWindow="5730" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{B6FF3E15-B5AF-46F5-8A56-7B93E866F441}"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" r:id="rId1"/>
     <sheet name="Moneda" sheetId="2" r:id="rId2"/>
     <sheet name="Unidad" sheetId="3" r:id="rId3"/>
     <sheet name="Cliente" sheetId="4" r:id="rId4"/>
+    <sheet name="Proveedor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>CAT_ID</t>
   </si>
@@ -180,6 +179,33 @@
   </si>
   <si>
     <t>Luis</t>
+  </si>
+  <si>
+    <t>PROV_ID</t>
+  </si>
+  <si>
+    <t>PROV_NOM</t>
+  </si>
+  <si>
+    <t>PROV_RUC</t>
+  </si>
+  <si>
+    <t>PROV_TELF</t>
+  </si>
+  <si>
+    <t>PROV_DIRECC</t>
+  </si>
+  <si>
+    <t>PROV_CORREO</t>
+  </si>
+  <si>
+    <t>Bembos</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t>Falabella</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392A0C91-AE46-4523-BA51-E0A4C944495A}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I10"/>
     </sheetView>
   </sheetViews>
@@ -1864,4 +1890,124 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00E8508-FC50-4F3E-B65E-384C5CC7D1BA}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>